--- a/MT_Sale.xlsx
+++ b/MT_Sale.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranjal\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="856" activeTab="10"/>
   </bookViews>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="43">
   <si>
     <t>Ledger Analysis</t>
   </si>
@@ -163,7 +158,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot;&quot;0"/>
@@ -645,7 +640,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -680,7 +675,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1251,14 +1246,14 @@
         <v>1123.1999999999998</v>
       </c>
       <c r="Q15" s="12">
-        <f t="shared" ref="Q12:Q24" si="0">B15+E15+H15+K15+N15</f>
+        <f t="shared" ref="Q15:Q23" si="0">B15+E15+H15+K15+N15</f>
         <v>120</v>
       </c>
       <c r="R15" s="21">
         <v>23.4</v>
       </c>
       <c r="S15" s="12">
-        <f t="shared" ref="S12:S24" si="1">D15+G15+J15+M15+P15</f>
+        <f t="shared" ref="S15:S23" si="1">D15+G15+J15+M15+P15</f>
         <v>2808</v>
       </c>
     </row>
@@ -2376,9 +2371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2404,17 +2397,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="A1" s="7"/>
       <c r="B1" s="4"/>
       <c r="C1" s="22"/>
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="A2" s="8"/>
       <c r="B2" s="4"/>
       <c r="C2" s="22"/>
       <c r="D2" s="4"/>
@@ -2715,7 +2704,7 @@
         <v>8</v>
       </c>
       <c r="M14" s="12">
-        <f t="shared" ref="M12:M23" si="0">L14*K14</f>
+        <f t="shared" ref="M14:M22" si="0">L14*K14</f>
         <v>45360</v>
       </c>
       <c r="N14" s="6">
@@ -2729,14 +2718,14 @@
         <v>39600</v>
       </c>
       <c r="Q14" s="12">
-        <f t="shared" ref="Q12:Q24" si="1">B14+E14+H14+K14+N14</f>
+        <f t="shared" ref="Q14:Q22" si="1">B14+E14+H14+K14+N14</f>
         <v>12420</v>
       </c>
       <c r="R14" s="21">
         <v>8</v>
       </c>
       <c r="S14" s="12">
-        <f t="shared" ref="S12:S24" si="2">D14+G14+J14+M14+P14</f>
+        <f t="shared" ref="S14:S22" si="2">D14+G14+J14+M14+P14</f>
         <v>99360</v>
       </c>
     </row>
@@ -3225,11 +3214,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:S9"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="B7:S7"/>
     <mergeCell ref="B8:D8"/>
@@ -3240,6 +3224,11 @@
     <mergeCell ref="Q8:S8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="E9:G9"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4168,6 +4157,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="B7:S7"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="N8:P8"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:G8"/>
@@ -4177,12 +4172,6 @@
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:M9"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="B7:S7"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="N8:P8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5244,14 +5233,14 @@
         <v>10530</v>
       </c>
       <c r="Q14" s="12">
-        <f t="shared" ref="Q12:Q24" si="0">B14+E14+H14+K14+N14</f>
+        <f t="shared" ref="Q14:Q20" si="0">B14+E14+H14+K14+N14</f>
         <v>6225</v>
       </c>
       <c r="R14" s="21">
         <v>7.8</v>
       </c>
       <c r="S14" s="12">
-        <f t="shared" ref="S12:S24" si="1">D14+G14+J14+M14+P14</f>
+        <f t="shared" ref="S14:S20" si="1">D14+G14+J14+M14+P14</f>
         <v>48555</v>
       </c>
     </row>
@@ -5726,11 +5715,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:S9"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="B7:S7"/>
     <mergeCell ref="B8:D8"/>
@@ -5741,6 +5725,11 @@
     <mergeCell ref="Q8:S8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="E9:G9"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MT_Sale.xlsx
+++ b/MT_Sale.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="42">
   <si>
     <t>Ledger Analysis</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>Bigbazar</t>
-  </si>
-  <si>
-    <t>Vishal Mega Mart</t>
   </si>
   <si>
     <t>Party Name : Dungarmal &amp; Sons</t>
@@ -915,7 +912,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -923,7 +920,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -931,7 +928,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1078,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L10" s="19" t="s">
         <v>17</v>
@@ -1087,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O10" s="19" t="s">
         <v>17</v>
@@ -1096,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R10" s="19" t="s">
         <v>17</v>
@@ -1214,7 +1211,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1501,7 +1498,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1622,7 +1619,7 @@
     <row r="28" spans="1:19" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
@@ -2371,7 +2368,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2409,9 +2408,7 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="A3" s="8"/>
       <c r="B3" s="4"/>
       <c r="C3" s="22"/>
       <c r="D3" s="4"/>
@@ -2429,20 +2426,14 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="A6" s="10"/>
       <c r="B6" s="4"/>
       <c r="C6" s="22"/>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>32</v>
-      </c>
+      <c r="A7" s="31"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
@@ -2530,7 +2521,7 @@
     <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="33"/>
       <c r="B10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>17</v>
@@ -2539,7 +2530,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>17</v>
@@ -2557,7 +2548,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L10" s="19" t="s">
         <v>17</v>
@@ -2566,7 +2557,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O10" s="19" t="s">
         <v>17</v>
@@ -2575,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R10" s="19" t="s">
         <v>17</v>
@@ -2731,7 +2722,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="6">
         <v>24</v>
@@ -2783,7 +2774,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="6">
         <v>24</v>
@@ -3204,7 +3195,7 @@
     </row>
     <row r="28" spans="1:19" ht="18" x14ac:dyDescent="0.3">
       <c r="C28" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
@@ -3214,6 +3205,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="B7:S7"/>
     <mergeCell ref="B8:D8"/>
@@ -3224,11 +3220,6 @@
     <mergeCell ref="Q8:S8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="E9:G9"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3269,7 +3260,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="22"/>
@@ -3277,7 +3268,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="22"/>
@@ -3285,7 +3276,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="22"/>
@@ -3405,7 +3396,7 @@
     <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="33"/>
       <c r="B10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>17</v>
@@ -3414,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>17</v>
@@ -3423,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="19" t="s">
         <v>17</v>
@@ -3432,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L10" s="19" t="s">
         <v>17</v>
@@ -3441,7 +3432,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O10" s="19" t="s">
         <v>17</v>
@@ -3450,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R10" s="19" t="s">
         <v>17</v>
@@ -3708,7 +3699,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="6">
         <v>12</v>
@@ -4050,7 +4041,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="21"/>
@@ -4147,7 +4138,7 @@
     </row>
     <row r="28" spans="1:19" ht="18" x14ac:dyDescent="0.3">
       <c r="C28" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
@@ -4157,12 +4148,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="B7:S7"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="N8:P8"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:G8"/>
@@ -4172,6 +4157,12 @@
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:M9"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="B7:S7"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="N8:P8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4915,7 +4906,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="22"/>
@@ -4923,7 +4914,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="22"/>
@@ -4931,7 +4922,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="22"/>
@@ -5051,7 +5042,7 @@
     <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="33"/>
       <c r="B10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>17</v>
@@ -5060,7 +5051,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>17</v>
@@ -5069,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="19" t="s">
         <v>17</v>
@@ -5078,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L10" s="19" t="s">
         <v>17</v>
@@ -5087,7 +5078,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O10" s="19" t="s">
         <v>17</v>
@@ -5096,7 +5087,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R10" s="19" t="s">
         <v>17</v>
@@ -5246,7 +5237,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="6">
         <v>72</v>
@@ -5314,7 +5305,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="21"/>
@@ -5705,7 +5696,7 @@
     </row>
     <row r="28" spans="1:19" ht="18" x14ac:dyDescent="0.3">
       <c r="D28" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
@@ -5715,6 +5706,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="B7:S7"/>
     <mergeCell ref="B8:D8"/>
@@ -5725,11 +5721,6 @@
     <mergeCell ref="Q8:S8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="E9:G9"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
